--- a/diagrams/gantt-chart-thaekedar.xlsx
+++ b/diagrams/gantt-chart-thaekedar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaky\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1-thproj\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E847259-8A68-4BC1-B4D4-559D6BB6786B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC42CA53-A8D0-48BB-9287-36D04600CF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA4FD02C-5271-4C8B-B593-72C99F565A92}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Description</t>
   </si>
@@ -66,13 +66,16 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Delivery</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
     <t>Upcoming</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Documentation</t>
   </si>
 </sst>
 </file>
@@ -144,20 +147,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,12 +479,12 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
@@ -488,209 +492,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1">
         <v>1</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1">
         <v>2</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1">
         <v>3</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1">
         <v>4</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1">
         <v>5</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1">
         <v>6</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1">
         <v>7</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1">
         <v>8</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>45296</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>45301</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>11</v>
+      <c r="E2" s="2"/>
+      <c r="N2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>45305</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>45310</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
+      <c r="F3" s="3"/>
+      <c r="N3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>45315</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>45322</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>45326</v>
       </c>
-      <c r="C5" s="1">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45355</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45386</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>12</v>
+      <c r="N5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>45356</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="1">
+        <v>45387</v>
+      </c>
+      <c r="C6">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
-        <v>45363</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>12</v>
+      <c r="D6" s="1">
+        <v>45394</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="N6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45296</v>
+      </c>
+      <c r="C7">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45400</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45364</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45369</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I5:K5"/>
+    <mergeCell ref="E7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
